--- a/TB02/Servicios.xlsx
+++ b/TB02/Servicios.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -95,8 +98,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>

--- a/TB02/Servicios.xlsx
+++ b/TB02/Servicios.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jose\UPC\2015-01\Moviles\DispositivosMoviles\TB02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="10515" windowHeight="10035"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="10515" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuario" sheetId="2" r:id="rId2"/>
+    <sheet name="Inmueble" sheetId="3" r:id="rId3"/>
+    <sheet name="Favoritos" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Título</t>
   </si>
@@ -43,14 +46,677 @@
   </si>
   <si>
     <t>Ejemplo de invocación</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        usuario : [string],    
+        password : [string] 
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        usuario : johndoe,    
+        password : 123456
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código: 401 UNAUTHORIZED
+Contenido: { error : "no autorizado" } 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+           usuario : johndoe,    
+            password : 123456
+       }
+    },
+    type : "GET",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Login: valida el login de usuario</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ usuario: 
+    { 
+        usuario : [string],    
+        password : [string],    
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string],
+        idTipoUsuario: [alphanumeric] 
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar usuario: Registra un usuario
+en el sistema </t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>action=registrar [string]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        usuario : [string],    
+        password : [string],    
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string],
+        idTipoUsuario: [alphanumeric] 
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        usuario : johndoe,    
+        password : 123456,    
+        nombre : John Doe,
+        email: johndoe@example.com,
+        ruc: 10287384630,
+        direccion: Av. Las Camelias 123,
+        web: www.johndoe.com,
+        telefono: 500-0000,
+        idTipoUsuario: 2 
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código: 500 Internal Server Error
+Contenido: { error : "error en el servidor" } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+           usuario : johndoe,    
+            password : 123456
+       }
+    },
+    type : "POST",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+            usuario : johndoe,    
+            password : 123456,    
+            nombre : John Doe,
+            email: johndoe@example.com,
+            ruc: 10287384630,
+            direccion: Av. Las Camelias 123,
+            web: www.johndoe.com,
+            telefono: 500-0000,
+            idTipoUsuario: 2 
+        }
+    },
+    type : "POST",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualizar usuario: Actualiza los datos de un usuario </t>
+  </si>
+  <si>
+    <t>/usuario</t>
+  </si>
+  <si>
+    <t>action=actualizar [string]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+            usuario : johndoe,    
+            password : 123456,    
+            nombre : John Doe,
+            email: johndoe@example.com,
+            ruc: 10287384630,
+            direccion: Av. Las Camelias 123,
+            web: www.johndoe.com,
+            telefono: 500-0000,
+            idTipoUsuario: 2 
+        }
+    },
+    type : "PUT",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ usuario: 
+    { 
+        usuario : [string],    
+        password : [string],    
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string],
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        id: [numeric],
+        usuario : [string],    
+        password : [string],    
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string], 
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        id: 1
+        usuario : johndoe,    
+        password : 123456,    
+        nombre : John Doe,
+        email: johndoe@example.com,
+        ruc: 10287384630,
+        direccion: Av. Las Camelias 123,
+        web: www.johndoe.com,
+        telefono: 500-0000
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Registrar inmueble: Registra un nuevo inmueble</t>
+  </si>
+  <si>
+    <t>/inmueble</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ inmueble: 
+    { 
+        id: [numeric]    
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ inmueble: 
+    { 
+        titulo : [string],    
+        direccion : [string],    
+        distrito: [string],
+        latitud: [numeric],
+        longitud: [numeric],
+        descripcion: [string],
+        precio: [numeric],
+        idUsuario: [numeric],
+        idTipoTransaccion: [numeric],
+        fechaCreacion:[string],     
+    },
+    {imagenes :
+        [
+            {i1: [string]},
+            {i2: [string]},
+            {i3: [string]}
+        ]
+    }
+}
+Ejemplo: 
+{ inmueble: 
+    { 
+        titulo : Remato,    
+        direccion : Av. 123 456,    
+        distrito: Surco,
+        latitud: 123,45,
+        longitud: 567,12,
+        descripcion: A buen precio,
+        precio: 150000,
+        idUsuario: 1,
+        idTipoTransaccion:2,
+        fechaCreacion:25-12-15,     
+    },
+    {imagenes :
+        [
+            {i1: 2367ydew8d8e},
+            {i2: ufwe8f878888f},
+            {i3: 8ffuffruir8rr8e}
+        ]
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { inmueble: 
+        {  
+            titulo : Remato,    
+            direccion : Av. 123 456,    
+            distrito: Surco,
+            latitud: 123,45,
+            longitud: 567,12,
+            descripcion: A buen precio,
+            precio: 150000,
+            idUsuario: 1,
+            idTipoTransaccion:2,
+            fechaCreacion:25-12-15,     
+        },
+        {imagenes :
+            [
+                {i1: [string]},
+                {i2: [string]},
+                {i3: [string]}
+            ]
+         }
+    }
+    type : "POST",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Registrar inmueble: Actualiza un inmueble existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ inmueble: 
+    { 
+        id: [numeric],
+        titulo : [string],    
+        direccion : [string],    
+        distrito: [string],
+        latitud: [numeric],
+        longitud: [numeric],
+        descripcion: [string],
+        precio: [numeric],
+        idTipoTransaccion: [numeric],     
+    },
+    {imagenes :
+        [
+            {i1: [string]},
+            {i2: [string]},
+            {i3: [string]}
+        ]
+    }
+}
+Ejemplo: 
+{ inmueble: 
+    { 
+        id: 5,
+        titulo : Remato,    
+        direccion : Av. 123 456,    
+        distrito: Surco,
+        latitud: 123,45,
+        longitud: 567,12,
+        descripcion: A buen precio,
+        precio: 150000,
+        idTipoTransaccion:2,
+        fechaCreacion:25-12-15,     
+    },
+    {imagenes :
+        [
+            {i1: 2367ydew8d8e},
+            {i2: ufwe8f878888f},
+            {i3: 8ffuffruir8rr8e}
+        ]
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Obtener inmueble: obtiene un inmueble existente dado un id</t>
+  </si>
+  <si>
+    <t>action=obtener[string]
+id=1[numeric]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ inmueble: 
+    { 
+        id: [numeric]
+    }
+}
+Ejemplo: 
+{ inmueble: 
+    { 
+        id: 5 
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ inmueble: 
+    { 
+        id: [numeric],
+        titulo : [string],    
+        direccion : [string],    
+        distrito: [string],
+        latitud: [numeric],
+        longitud: [numeric],
+        descripcion: [string],
+        precio: [numeric],
+        idTipoTransaccion: [numeric],     
+    },
+    {imagenes :
+        [
+            {ruta1: [string]},
+            {ruta2: [string]},
+            {ruta3: [string]}
+        ]
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { inmueble: 
+        {
+               id = 1
+        }
+    }
+    type : "GET",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Eliminar Inmueble: elimina un inmueble existente dado un id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action=eliminar[string]
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ mensaje: eliminado}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { inmueble: 
+        {
+               id = 1
+        }
+    }
+    type : "¨PUT",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Listar inmueble: Lista los inmuebles existentes</t>
+  </si>
+  <si>
+    <t>action=listar [string]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ lista: 
+    [ 
+        {
+            id: [numeric],
+            titulo : [string],    
+            direccion : [string],    
+            area: [numeric],
+            tipo: [numeric],
+            precio: [numeric],
+            rutaImg: [string]
+       }     
+    ]
+}
+Ejemplo: 
+{ lista: 
+    [ 
+        {
+            id: 1
+            titulo : Remate,    
+            direccion : Av 123,    
+            area:500.8,
+            tipo: 1,
+            precio: 1500000,
+            rutaImg: /a/b.jpg
+       }     
+    ]
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    type : "GET",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Agregar favoritos: agrega un 
+departamento a favoritos</t>
+  </si>
+  <si>
+    <t>/favoritos</t>
+  </si>
+  <si>
+    <t>action=agregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ favorito: 
+    { 
+        idUsuario : [numeric],    
+        idInmueble : [numeric] 
+    }
+}
+Ejemplo: 
+{ favorito: 
+    { 
+        idUsuario :1,    
+        idInmueble: 2
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ 
+    mensaje = "success"
+}</t>
+  </si>
+  <si>
+    <t>Eliminar favoritos: elimina un inmueble de favoritos</t>
+  </si>
+  <si>
+    <t>action=eliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ favorito: 
+    { 
+        idFavorito : [numeric]
+    }
+}
+Ejemplo: 
+{ favorito: 
+    { 
+        idFavorito: 1
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { favorito: 
+        { 
+           idFavorito : 1
+       }
+    },
+    type : "POST",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Listar favoritos: lista inmuebles en favoritos</t>
+  </si>
+  <si>
+    <t>action=listar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        idUsuario : [numeric]
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        idUsuario: 1
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ lista: 
+    [ 
+        {
+            id: [numeric],
+            titulo : [string],    
+            direccion : [string],    
+            area: [numeric],
+            tipo: [numeric],
+            precio: [numeric],
+            rutaImg: [string]
+       }     
+    ]
+}
+Ejemplo: 
+{ lista: 
+    [ 
+        {
+            id: 1
+            titulo : Remate,    
+            direccion : Av 123,    
+            area:500.8,
+            tipo: 1,
+            precio: 1500000,
+            rutaImg: /a/b.jpg
+       }     
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+           idUusario: 1
+       }
+    },
+    type : "GET",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,51 +752,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,91 +1087,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+    </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="210" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="240" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="5" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TB02/Servicios.xlsx
+++ b/TB02/Servicios.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>Título</t>
   </si>
@@ -126,56 +126,8 @@
     <t>action=registrar [string]</t>
   </si>
   <si>
-    <t xml:space="preserve">{ usuario: 
-    { 
-        usuario : [string],    
-        password : [string],    
-        nombre : [string],
-        email: [string],
-        ruc: [string],
-        direccion: [string],
-        web: [string],
-        telefono: [string],
-        idTipoUsuario: [alphanumeric] 
-    }
-}
-Ejemplo: 
-{ usuario: 
-    { 
-        usuario : johndoe,    
-        password : 123456,    
-        nombre : John Doe,
-        email: johndoe@example.com,
-        ruc: 10287384630,
-        direccion: Av. Las Camelias 123,
-        web: www.johndoe.com,
-        telefono: 500-0000,
-        idTipoUsuario: 2 
-    }
-}
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Código: 500 Internal Server Error
 Contenido: { error : "error en el servidor" } </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.ajax({ 
-    url: "/login", 
-    dataType: "json",
-    data :
-    { usuario: 
-        { 
-           usuario : johndoe,    
-            password : 123456
-       }
-    },
-    type : "POST",  
-    success : function(r) {
-        console.log(r);  
-    }
-});                      
-</t>
   </si>
   <si>
     <t xml:space="preserve">$.ajax({ 
@@ -251,36 +203,6 @@
         telefono: [string],
     }
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ usuario: 
-    { 
-        id: [numeric],
-        usuario : [string],    
-        password : [string],    
-        nombre : [string],
-        email: [string],
-        ruc: [string],
-        direccion: [string],
-        web: [string],
-        telefono: [string], 
-    }
-}
-Ejemplo: 
-{ usuario: 
-    { 
-        id: 1
-        usuario : johndoe,    
-        password : 123456,    
-        nombre : John Doe,
-        email: johndoe@example.com,
-        ruc: 10287384630,
-        direccion: Av. Las Camelias 123,
-        web: www.johndoe.com,
-        telefono: 500-0000
-    }
-}
-</t>
   </si>
   <si>
     <t>Registrar inmueble: Registra un nuevo inmueble</t>
@@ -380,9 +302,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>Registrar inmueble: Actualiza un inmueble existente</t>
-  </si>
-  <si>
     <t xml:space="preserve">{ inmueble: 
     { 
         id: [numeric],
@@ -618,23 +537,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">$.ajax({ 
-    url: "/login", 
-    dataType: "json",
-    data :
-    { favorito: 
-        { 
-           idFavorito : 1
-       }
-    },
-    type : "POST",  
-    success : function(r) {
-        console.log(r);  
-    }
-});                      
-</t>
-  </si>
-  <si>
     <t>Listar favoritos: lista inmuebles en favoritos</t>
   </si>
   <si>
@@ -696,6 +598,118 @@
        }
     },
     type : "GET",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t>Código: 200 (OK)
+Contenido: 
+{ usuario: 
+    { 
+        usuario : [string],        
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string],
+        idTipoUsuario: [alphanumeric] 
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        usuario : [string],       
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string],
+        idTipoUsuario: [alphanumeric] 
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        usuario : johndoe,    
+        password : 123456,    
+        nombre : John Doe,
+        email: johndoe@example.com,
+        ruc: 10287384630,
+        direccion: Av. Las Camelias 123,
+        web: www.johndoe.com,
+        telefono: 500-0000,
+        idTipoUsuario: 2 
+    }
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ usuario: 
+    { 
+        id: [numeric],
+        usuario : [string],        
+        nombre : [string],
+        email: [string],
+        ruc: [string],
+        direccion: [string],
+        web: [string],
+        telefono: [string], 
+    }
+}
+Ejemplo: 
+{ usuario: 
+    { 
+        id: 1
+        usuario : johndoe,    
+        password : 123456,    
+        nombre : John Doe,
+        email: johndoe@example.com,
+        ruc: 10287384630,
+        direccion: Av. Las Camelias 123,
+        web: www.johndoe.com,
+        telefono: 500-0000
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>Actualizar inmueble: Actualiza un inmueble existente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { favorito: 
+        { 
+           idFavorito : 1
+       }
+    },
+    type : "PUT",  
+    success : function(r) {
+        console.log(r);  
+    }
+});                      
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$.ajax({ 
+    url: "/login", 
+    dataType: "json",
+    data :
+    { usuario: 
+        { 
+           usuario : johndoe,    
+            password : 123456
+       }
+    },
+    type : "PUT",  
     success : function(r) {
         console.log(r);  
     }
@@ -1089,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,12 +1156,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="210" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="45" x14ac:dyDescent="0.25">
@@ -1177,7 +1191,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1203,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1228,18 +1242,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="405" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1264,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -1258,10 +1272,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="360" x14ac:dyDescent="0.25">
@@ -1269,14 +1283,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1284,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1320,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1343,13 +1358,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -1363,16 +1378,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -1380,19 +1395,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="315" x14ac:dyDescent="0.25">
@@ -1400,39 +1415,39 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -1440,19 +1455,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1464,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -1493,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1510,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -1521,13 +1536,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="210" x14ac:dyDescent="0.25">
@@ -1535,13 +1550,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
@@ -1549,13 +1564,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -1563,13 +1578,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="240" x14ac:dyDescent="0.25">
@@ -1577,13 +1592,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
